--- a/src/main/webapp/excelTemplate/indiviaul_capability.xlsx
+++ b/src/main/webapp/excelTemplate/indiviaul_capability.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\엑셀템플릿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sk-gasUtils\src\main\webapp\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,21 +174,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,10 +209,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
